--- a/www/terminologies/ValueSet-JDV-J22-RestrictionAudienceVIHF-CISIS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J22-RestrictionAudienceVIHF-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -239,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -339,20 +345,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -374,34 +388,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
